--- a/BLACK_SUNRISE_HSV/GLCM_All_Data_0_45_90_135_Degree/All_Data_0_45_90_135_Degree_n.xlsx
+++ b/BLACK_SUNRISE_HSV/GLCM_All_Data_0_45_90_135_Degree/All_Data_0_45_90_135_Degree_n.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +45,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +335,1271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="14.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="13.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="13.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="13.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="13.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="13.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="13.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="13.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="13.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="13.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
+    <col min="69" max="69" width="12.7109375" customWidth="true"/>
+    <col min="70" max="70" width="12.7109375" customWidth="true"/>
+    <col min="71" max="71" width="12.7109375" customWidth="true"/>
+    <col min="72" max="72" width="12.7109375" customWidth="true"/>
+    <col min="73" max="73" width="13.7109375" customWidth="true"/>
+    <col min="74" max="74" width="12.7109375" customWidth="true"/>
+    <col min="75" max="75" width="12.7109375" customWidth="true"/>
+    <col min="76" max="76" width="12.7109375" customWidth="true"/>
+    <col min="77" max="77" width="13.7109375" customWidth="true"/>
+    <col min="78" max="78" width="12.7109375" customWidth="true"/>
+    <col min="79" max="79" width="12.7109375" customWidth="true"/>
+    <col min="80" max="80" width="12.7109375" customWidth="true"/>
+    <col min="81" max="81" width="12.7109375" customWidth="true"/>
+    <col min="82" max="82" width="12.7109375" customWidth="true"/>
+    <col min="83" max="83" width="12.7109375" customWidth="true"/>
+    <col min="84" max="84" width="12.7109375" customWidth="true"/>
+    <col min="85" max="85" width="13.7109375" customWidth="true"/>
+    <col min="86" max="86" width="12.7109375" customWidth="true"/>
+    <col min="87" max="87" width="12.7109375" customWidth="true"/>
+    <col min="88" max="88" width="12.7109375" customWidth="true"/>
+    <col min="89" max="89" width="13.7109375" customWidth="true"/>
+    <col min="90" max="90" width="12.7109375" customWidth="true"/>
+    <col min="91" max="91" width="12.7109375" customWidth="true"/>
+    <col min="92" max="92" width="12.7109375" customWidth="true"/>
+    <col min="93" max="93" width="12.7109375" customWidth="true"/>
+    <col min="94" max="94" width="12.7109375" customWidth="true"/>
+    <col min="95" max="95" width="12.7109375" customWidth="true"/>
+    <col min="96" max="96" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>0.049247248484624244</v>
+      </c>
+      <c r="B1">
+        <v>0.8792963095448767</v>
+      </c>
+      <c r="C1">
+        <v>0.54871751326538165</v>
+      </c>
+      <c r="D1">
+        <v>0.97577712868234656</v>
+      </c>
+      <c r="E1">
+        <v>0.10304616948675234</v>
+      </c>
+      <c r="F1">
+        <v>0.83485609872622701</v>
+      </c>
+      <c r="G1">
+        <v>0.48278351960515564</v>
+      </c>
+      <c r="H1">
+        <v>0.94942174435080762</v>
+      </c>
+      <c r="I1">
+        <v>0.096163526800012278</v>
+      </c>
+      <c r="J1">
+        <v>0.7434685456231539</v>
+      </c>
+      <c r="K1">
+        <v>0.64359422570957781</v>
+      </c>
+      <c r="L1">
+        <v>0.95334921807407957</v>
+      </c>
+      <c r="M1">
+        <v>0.049247248484624244</v>
+      </c>
+      <c r="N1">
+        <v>0.8792963095448767</v>
+      </c>
+      <c r="O1">
+        <v>0.54871751326538165</v>
+      </c>
+      <c r="P1">
+        <v>0.97577712868234656</v>
+      </c>
+      <c r="Q1">
+        <v>0.10304616948675234</v>
+      </c>
+      <c r="R1">
+        <v>0.83485609872622701</v>
+      </c>
+      <c r="S1">
+        <v>0.48278351960515564</v>
+      </c>
+      <c r="T1">
+        <v>0.94942174435080762</v>
+      </c>
+      <c r="U1">
+        <v>0.096163526800012278</v>
+      </c>
+      <c r="V1">
+        <v>0.7434685456231539</v>
+      </c>
+      <c r="W1">
+        <v>0.64359422570957781</v>
+      </c>
+      <c r="X1">
+        <v>0.95334921807407957</v>
+      </c>
+      <c r="Y1">
+        <v>0.067546159314214566</v>
+      </c>
+      <c r="Z1">
+        <v>0.83442776169582211</v>
+      </c>
+      <c r="AA1">
+        <v>0.53328585572124609</v>
+      </c>
+      <c r="AB1">
+        <v>0.96682628518820657</v>
+      </c>
+      <c r="AC1">
+        <v>0.15222486042192729</v>
+      </c>
+      <c r="AD1">
+        <v>0.76058379920159724</v>
+      </c>
+      <c r="AE1">
+        <v>0.45499864670484685</v>
+      </c>
+      <c r="AF1">
+        <v>0.92728787877931484</v>
+      </c>
+      <c r="AG1">
+        <v>0.14999286247373383</v>
+      </c>
+      <c r="AH1">
+        <v>0.62228629517627443</v>
+      </c>
+      <c r="AI1">
+        <v>0.61631122302261832</v>
+      </c>
+      <c r="AJ1">
+        <v>0.93051217156767996</v>
+      </c>
+      <c r="AK1">
+        <v>0.067546159314214566</v>
+      </c>
+      <c r="AL1">
+        <v>0.83442776169582211</v>
+      </c>
+      <c r="AM1">
+        <v>0.53328585572124609</v>
+      </c>
+      <c r="AN1">
+        <v>0.96682628518820657</v>
+      </c>
+      <c r="AO1">
+        <v>0.15222486042192729</v>
+      </c>
+      <c r="AP1">
+        <v>0.76058379920159724</v>
+      </c>
+      <c r="AQ1">
+        <v>0.45499864670484685</v>
+      </c>
+      <c r="AR1">
+        <v>0.92728787877931484</v>
+      </c>
+      <c r="AS1">
+        <v>0.14999286247373383</v>
+      </c>
+      <c r="AT1">
+        <v>0.62228629517627443</v>
+      </c>
+      <c r="AU1">
+        <v>0.61631122302261832</v>
+      </c>
+      <c r="AV1">
+        <v>0.93051217156767996</v>
+      </c>
+      <c r="AW1">
+        <v>0.045605664756540328</v>
+      </c>
+      <c r="AX1">
+        <v>0.88818540421206194</v>
+      </c>
+      <c r="AY1">
+        <v>0.5517632352953673</v>
+      </c>
+      <c r="AZ1">
+        <v>0.97748950746264296</v>
+      </c>
+      <c r="BA1">
+        <v>0.11307193504840231</v>
+      </c>
+      <c r="BB1">
+        <v>0.82478514960580007</v>
+      </c>
+      <c r="BC1">
+        <v>0.47773597904629833</v>
+      </c>
+      <c r="BD1">
+        <v>0.94482884482974938</v>
+      </c>
+      <c r="BE1">
+        <v>0.11320725620939714</v>
+      </c>
+      <c r="BF1">
+        <v>0.72045823966644573</v>
+      </c>
+      <c r="BG1">
+        <v>0.63480693490000939</v>
+      </c>
+      <c r="BH1">
+        <v>0.94536286180870832</v>
+      </c>
+      <c r="BI1">
+        <v>0.045605664756540328</v>
+      </c>
+      <c r="BJ1">
+        <v>0.88818540421206194</v>
+      </c>
+      <c r="BK1">
+        <v>0.5517632352953673</v>
+      </c>
+      <c r="BL1">
+        <v>0.97748950746264296</v>
+      </c>
+      <c r="BM1">
+        <v>0.11307193504840231</v>
+      </c>
+      <c r="BN1">
+        <v>0.82478514960580007</v>
+      </c>
+      <c r="BO1">
+        <v>0.47773597904629833</v>
+      </c>
+      <c r="BP1">
+        <v>0.94482884482974938</v>
+      </c>
+      <c r="BQ1">
+        <v>0.11320725620939714</v>
+      </c>
+      <c r="BR1">
+        <v>0.72045823966644573</v>
+      </c>
+      <c r="BS1">
+        <v>0.63480693490000939</v>
+      </c>
+      <c r="BT1">
+        <v>0.94536286180870832</v>
+      </c>
+      <c r="BU1">
+        <v>0.067210553101249862</v>
+      </c>
+      <c r="BV1">
+        <v>0.83485972884608939</v>
+      </c>
+      <c r="BW1">
+        <v>0.53307333222757314</v>
+      </c>
+      <c r="BX1">
+        <v>0.96669296496137003</v>
+      </c>
+      <c r="BY1">
+        <v>0.15390490985652577</v>
+      </c>
+      <c r="BZ1">
+        <v>0.75921602526872689</v>
+      </c>
+      <c r="CA1">
+        <v>0.45494160536839129</v>
+      </c>
+      <c r="CB1">
+        <v>0.92691502374256407</v>
+      </c>
+      <c r="CC1">
+        <v>0.14939760766046953</v>
+      </c>
+      <c r="CD1">
+        <v>0.62127582622616295</v>
+      </c>
+      <c r="CE1">
+        <v>0.61747490154159168</v>
+      </c>
+      <c r="CF1">
+        <v>0.93117366922390199</v>
+      </c>
+      <c r="CG1">
+        <v>0.067210553101249862</v>
+      </c>
+      <c r="CH1">
+        <v>0.83485972884608939</v>
+      </c>
+      <c r="CI1">
+        <v>0.53307333222757314</v>
+      </c>
+      <c r="CJ1">
+        <v>0.96669296496137003</v>
+      </c>
+      <c r="CK1">
+        <v>0.15390490985652577</v>
+      </c>
+      <c r="CL1">
+        <v>0.75921602526872689</v>
+      </c>
+      <c r="CM1">
+        <v>0.45494160536839129</v>
+      </c>
+      <c r="CN1">
+        <v>0.92691502374256407</v>
+      </c>
+      <c r="CO1">
+        <v>0.14939760766046953</v>
+      </c>
+      <c r="CP1">
+        <v>0.62127582622616295</v>
+      </c>
+      <c r="CQ1">
+        <v>0.61747490154159168</v>
+      </c>
+      <c r="CR1">
+        <v>0.93117366922390199</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.02396668009074264</v>
+      </c>
+      <c r="B2">
+        <v>0.92511765076708796</v>
+      </c>
+      <c r="C2">
+        <v>0.66107290748192016</v>
+      </c>
+      <c r="D2">
+        <v>0.98805189767074342</v>
+      </c>
+      <c r="E2">
+        <v>0.018935436248469981</v>
+      </c>
+      <c r="F2">
+        <v>0.71564880869584357</v>
+      </c>
+      <c r="G2">
+        <v>0.90611211517125945</v>
+      </c>
+      <c r="H2">
+        <v>0.99054952362016446</v>
+      </c>
+      <c r="I2">
+        <v>0.092038176549200615</v>
+      </c>
+      <c r="J2">
+        <v>0.86121099810437551</v>
+      </c>
+      <c r="K2">
+        <v>0.50296463846822492</v>
+      </c>
+      <c r="L2">
+        <v>0.95436104410254152</v>
+      </c>
+      <c r="M2">
+        <v>0.02396668009074264</v>
+      </c>
+      <c r="N2">
+        <v>0.92511765076708796</v>
+      </c>
+      <c r="O2">
+        <v>0.66107290748192016</v>
+      </c>
+      <c r="P2">
+        <v>0.98805189767074342</v>
+      </c>
+      <c r="Q2">
+        <v>0.018935436248469981</v>
+      </c>
+      <c r="R2">
+        <v>0.71564880869584357</v>
+      </c>
+      <c r="S2">
+        <v>0.90611211517125945</v>
+      </c>
+      <c r="T2">
+        <v>0.99054952362016446</v>
+      </c>
+      <c r="U2">
+        <v>0.092038176549200615</v>
+      </c>
+      <c r="V2">
+        <v>0.86121099810437551</v>
+      </c>
+      <c r="W2">
+        <v>0.50296463846822492</v>
+      </c>
+      <c r="X2">
+        <v>0.95436104410254152</v>
+      </c>
+      <c r="Y2">
+        <v>0.038381929186937648</v>
+      </c>
+      <c r="Z2">
+        <v>0.87984222125505196</v>
+      </c>
+      <c r="AA2">
+        <v>0.64815222888827284</v>
+      </c>
+      <c r="AB2">
+        <v>0.98088291356232382</v>
+      </c>
+      <c r="AC2">
+        <v>0.02901772536085663</v>
+      </c>
+      <c r="AD2">
+        <v>0.57747153263487538</v>
+      </c>
+      <c r="AE2">
+        <v>0.89720961681684874</v>
+      </c>
+      <c r="AF2">
+        <v>0.98557230577754928</v>
+      </c>
+      <c r="AG2">
+        <v>0.1454093557409806</v>
+      </c>
+      <c r="AH2">
+        <v>0.77992950517898774</v>
+      </c>
+      <c r="AI2">
+        <v>0.47170472922175666</v>
+      </c>
+      <c r="AJ2">
+        <v>0.92964865372746253</v>
+      </c>
+      <c r="AK2">
+        <v>0.038381929186937648</v>
+      </c>
+      <c r="AL2">
+        <v>0.87984222125505196</v>
+      </c>
+      <c r="AM2">
+        <v>0.64815222888827284</v>
+      </c>
+      <c r="AN2">
+        <v>0.98088291356232382</v>
+      </c>
+      <c r="AO2">
+        <v>0.02901772536085663</v>
+      </c>
+      <c r="AP2">
+        <v>0.57747153263487538</v>
+      </c>
+      <c r="AQ2">
+        <v>0.89720961681684874</v>
+      </c>
+      <c r="AR2">
+        <v>0.98557230577754928</v>
+      </c>
+      <c r="AS2">
+        <v>0.1454093557409806</v>
+      </c>
+      <c r="AT2">
+        <v>0.77992950517898774</v>
+      </c>
+      <c r="AU2">
+        <v>0.47170472922175666</v>
+      </c>
+      <c r="AV2">
+        <v>0.92964865372746253</v>
+      </c>
+      <c r="AW2">
+        <v>0.028189078119715175</v>
+      </c>
+      <c r="AX2">
+        <v>0.91291994611417426</v>
+      </c>
+      <c r="AY2">
+        <v>0.65728768141810978</v>
+      </c>
+      <c r="AZ2">
+        <v>0.98594698240144651</v>
+      </c>
+      <c r="BA2">
+        <v>0.022435999492176471</v>
+      </c>
+      <c r="BB2">
+        <v>0.67086721052203802</v>
+      </c>
+      <c r="BC2">
+        <v>0.90300579063019981</v>
+      </c>
+      <c r="BD2">
+        <v>0.98880576508484919</v>
+      </c>
+      <c r="BE2">
+        <v>0.11069675352383122</v>
+      </c>
+      <c r="BF2">
+        <v>0.83183618363853506</v>
+      </c>
+      <c r="BG2">
+        <v>0.49124380699582848</v>
+      </c>
+      <c r="BH2">
+        <v>0.94537039576346527</v>
+      </c>
+      <c r="BI2">
+        <v>0.028189078119715175</v>
+      </c>
+      <c r="BJ2">
+        <v>0.91291994611417426</v>
+      </c>
+      <c r="BK2">
+        <v>0.65728768141810978</v>
+      </c>
+      <c r="BL2">
+        <v>0.98594698240144651</v>
+      </c>
+      <c r="BM2">
+        <v>0.022435999492176471</v>
+      </c>
+      <c r="BN2">
+        <v>0.67086721052203802</v>
+      </c>
+      <c r="BO2">
+        <v>0.90300579063019981</v>
+      </c>
+      <c r="BP2">
+        <v>0.98880576508484919</v>
+      </c>
+      <c r="BQ2">
+        <v>0.11069675352383122</v>
+      </c>
+      <c r="BR2">
+        <v>0.83183618363853506</v>
+      </c>
+      <c r="BS2">
+        <v>0.49124380699582848</v>
+      </c>
+      <c r="BT2">
+        <v>0.94537039576346527</v>
+      </c>
+      <c r="BU2">
+        <v>0.037054796584782272</v>
+      </c>
+      <c r="BV2">
+        <v>0.88337315046137654</v>
+      </c>
+      <c r="BW2">
+        <v>0.64926686439279413</v>
+      </c>
+      <c r="BX2">
+        <v>0.9814972815611217</v>
+      </c>
+      <c r="BY2">
+        <v>0.027867546108121369</v>
+      </c>
+      <c r="BZ2">
+        <v>0.58828562458266909</v>
+      </c>
+      <c r="CA2">
+        <v>0.89822971457101841</v>
+      </c>
+      <c r="CB2">
+        <v>0.98612327846261427</v>
+      </c>
+      <c r="CC2">
+        <v>0.13830662489878603</v>
+      </c>
+      <c r="CD2">
+        <v>0.79127661849353614</v>
+      </c>
+      <c r="CE2">
+        <v>0.47508065982113218</v>
+      </c>
+      <c r="CF2">
+        <v>0.93262437645910978</v>
+      </c>
+      <c r="CG2">
+        <v>0.037054796584782272</v>
+      </c>
+      <c r="CH2">
+        <v>0.88337315046137654</v>
+      </c>
+      <c r="CI2">
+        <v>0.64926686439279413</v>
+      </c>
+      <c r="CJ2">
+        <v>0.9814972815611217</v>
+      </c>
+      <c r="CK2">
+        <v>0.027867546108121369</v>
+      </c>
+      <c r="CL2">
+        <v>0.58828562458266909</v>
+      </c>
+      <c r="CM2">
+        <v>0.89822971457101841</v>
+      </c>
+      <c r="CN2">
+        <v>0.98612327846261427</v>
+      </c>
+      <c r="CO2">
+        <v>0.13830662489878603</v>
+      </c>
+      <c r="CP2">
+        <v>0.79127661849353614</v>
+      </c>
+      <c r="CQ2">
+        <v>0.47508065982113218</v>
+      </c>
+      <c r="CR2">
+        <v>0.93262437645910978</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.0081507116892102181</v>
+      </c>
+      <c r="B3">
+        <v>0.59478241536781529</v>
+      </c>
+      <c r="C3">
+        <v>0.96566393806888684</v>
+      </c>
+      <c r="D3">
+        <v>0.99616529312765634</v>
+      </c>
+      <c r="E3">
+        <v>0.11657964098731062</v>
+      </c>
+      <c r="F3">
+        <v>0.81603332340923618</v>
+      </c>
+      <c r="G3">
+        <v>0.45737396859003776</v>
+      </c>
+      <c r="H3">
+        <v>0.94241468960807917</v>
+      </c>
+      <c r="I3">
+        <v>0.1507102704011975</v>
+      </c>
+      <c r="J3">
+        <v>0.77291056589155016</v>
+      </c>
+      <c r="K3">
+        <v>0.43225287208466512</v>
+      </c>
+      <c r="L3">
+        <v>0.92623578988301092</v>
+      </c>
+      <c r="M3">
+        <v>0.0081507116892102181</v>
+      </c>
+      <c r="N3">
+        <v>0.59478241536781529</v>
+      </c>
+      <c r="O3">
+        <v>0.96566393806888684</v>
+      </c>
+      <c r="P3">
+        <v>0.99616529312765634</v>
+      </c>
+      <c r="Q3">
+        <v>0.11657964098731062</v>
+      </c>
+      <c r="R3">
+        <v>0.81603332340923618</v>
+      </c>
+      <c r="S3">
+        <v>0.45737396859003776</v>
+      </c>
+      <c r="T3">
+        <v>0.94241468960807917</v>
+      </c>
+      <c r="U3">
+        <v>0.1507102704011975</v>
+      </c>
+      <c r="V3">
+        <v>0.77291056589155016</v>
+      </c>
+      <c r="W3">
+        <v>0.43225287208466512</v>
+      </c>
+      <c r="X3">
+        <v>0.92623578988301092</v>
+      </c>
+      <c r="Y3">
+        <v>0.011065209270081595</v>
+      </c>
+      <c r="Z3">
+        <v>0.48075887682371687</v>
+      </c>
+      <c r="AA3">
+        <v>0.96311236548155743</v>
+      </c>
+      <c r="AB3">
+        <v>0.9947754324104352</v>
+      </c>
+      <c r="AC3">
+        <v>0.17192267436292274</v>
+      </c>
+      <c r="AD3">
+        <v>0.725335642082369</v>
+      </c>
+      <c r="AE3">
+        <v>0.42594516685841166</v>
+      </c>
+      <c r="AF3">
+        <v>0.91677129736398111</v>
+      </c>
+      <c r="AG3">
+        <v>0.22611095867399633</v>
+      </c>
+      <c r="AH3">
+        <v>0.66278751366798405</v>
+      </c>
+      <c r="AI3">
+        <v>0.39542860401101976</v>
+      </c>
+      <c r="AJ3">
+        <v>0.89379656551402564</v>
+      </c>
+      <c r="AK3">
+        <v>0.011065209270081595</v>
+      </c>
+      <c r="AL3">
+        <v>0.48075887682371687</v>
+      </c>
+      <c r="AM3">
+        <v>0.96311236548155743</v>
+      </c>
+      <c r="AN3">
+        <v>0.9947754324104352</v>
+      </c>
+      <c r="AO3">
+        <v>0.17192267436292274</v>
+      </c>
+      <c r="AP3">
+        <v>0.725335642082369</v>
+      </c>
+      <c r="AQ3">
+        <v>0.42594516685841166</v>
+      </c>
+      <c r="AR3">
+        <v>0.91677129736398111</v>
+      </c>
+      <c r="AS3">
+        <v>0.22611095867399633</v>
+      </c>
+      <c r="AT3">
+        <v>0.66278751366798405</v>
+      </c>
+      <c r="AU3">
+        <v>0.39542860401101976</v>
+      </c>
+      <c r="AV3">
+        <v>0.89379656551402564</v>
+      </c>
+      <c r="AW3">
+        <v>0.008112418200217875</v>
+      </c>
+      <c r="AX3">
+        <v>0.60843989640803831</v>
+      </c>
+      <c r="AY3">
+        <v>0.96571004380065695</v>
+      </c>
+      <c r="AZ3">
+        <v>0.99617386998631197</v>
+      </c>
+      <c r="BA3">
+        <v>0.12363685418870332</v>
+      </c>
+      <c r="BB3">
+        <v>0.80042983397476819</v>
+      </c>
+      <c r="BC3">
+        <v>0.45254964969332162</v>
+      </c>
+      <c r="BD3">
+        <v>0.93895518392134991</v>
+      </c>
+      <c r="BE3">
+        <v>0.16170461749904486</v>
+      </c>
+      <c r="BF3">
+        <v>0.75743684262359035</v>
+      </c>
+      <c r="BG3">
+        <v>0.42603270622240075</v>
+      </c>
+      <c r="BH3">
+        <v>0.9210164655506321</v>
+      </c>
+      <c r="BI3">
+        <v>0.008112418200217875</v>
+      </c>
+      <c r="BJ3">
+        <v>0.60843989640803831</v>
+      </c>
+      <c r="BK3">
+        <v>0.96571004380065695</v>
+      </c>
+      <c r="BL3">
+        <v>0.99617386998631197</v>
+      </c>
+      <c r="BM3">
+        <v>0.12363685418870332</v>
+      </c>
+      <c r="BN3">
+        <v>0.80042983397476819</v>
+      </c>
+      <c r="BO3">
+        <v>0.45254964969332162</v>
+      </c>
+      <c r="BP3">
+        <v>0.93895518392134991</v>
+      </c>
+      <c r="BQ3">
+        <v>0.16170461749904486</v>
+      </c>
+      <c r="BR3">
+        <v>0.75743684262359035</v>
+      </c>
+      <c r="BS3">
+        <v>0.42603270622240075</v>
+      </c>
+      <c r="BT3">
+        <v>0.9210164655506321</v>
+      </c>
+      <c r="BU3">
+        <v>0.011116050593463916</v>
+      </c>
+      <c r="BV3">
+        <v>0.48301700917669838</v>
+      </c>
+      <c r="BW3">
+        <v>0.96316159962453107</v>
+      </c>
+      <c r="BX3">
+        <v>0.99479984085304662</v>
+      </c>
+      <c r="BY3">
+        <v>0.16173678936844862</v>
+      </c>
+      <c r="BZ3">
+        <v>0.74304272331692856</v>
+      </c>
+      <c r="CA3">
+        <v>0.43111337926218357</v>
+      </c>
+      <c r="CB3">
+        <v>0.92156651168935622</v>
+      </c>
+      <c r="CC3">
+        <v>0.21013258872354604</v>
+      </c>
+      <c r="CD3">
+        <v>0.68417286885433126</v>
+      </c>
+      <c r="CE3">
+        <v>0.40236818166151994</v>
+      </c>
+      <c r="CF3">
+        <v>0.90047533757762543</v>
+      </c>
+      <c r="CG3">
+        <v>0.011116050593463916</v>
+      </c>
+      <c r="CH3">
+        <v>0.48301700917669838</v>
+      </c>
+      <c r="CI3">
+        <v>0.96316159962453107</v>
+      </c>
+      <c r="CJ3">
+        <v>0.99479984085304662</v>
+      </c>
+      <c r="CK3">
+        <v>0.16173678936844862</v>
+      </c>
+      <c r="CL3">
+        <v>0.74304272331692856</v>
+      </c>
+      <c r="CM3">
+        <v>0.43111337926218357</v>
+      </c>
+      <c r="CN3">
+        <v>0.92156651168935622</v>
+      </c>
+      <c r="CO3">
+        <v>0.21013258872354604</v>
+      </c>
+      <c r="CP3">
+        <v>0.68417286885433126</v>
+      </c>
+      <c r="CQ3">
+        <v>0.40236818166151994</v>
+      </c>
+      <c r="CR3">
+        <v>0.90047533757762543</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.011790694721173679</v>
+      </c>
+      <c r="B4">
+        <v>0.82539150333103928</v>
+      </c>
+      <c r="C4">
+        <v>0.9016645124091871</v>
+      </c>
+      <c r="D4">
+        <v>0.99422614645977214</v>
+      </c>
+      <c r="E4">
+        <v>0.046621291811852067</v>
+      </c>
+      <c r="F4">
+        <v>0.82514292025611702</v>
+      </c>
+      <c r="G4">
+        <v>0.70585494401049409</v>
+      </c>
+      <c r="H4">
+        <v>0.97673358656169329</v>
+      </c>
+      <c r="I4">
+        <v>0.049095716660855965</v>
+      </c>
+      <c r="J4">
+        <v>0.82703925258936029</v>
+      </c>
+      <c r="K4">
+        <v>0.72973907814720684</v>
+      </c>
+      <c r="L4">
+        <v>0.9756918465762574</v>
+      </c>
+      <c r="M4">
+        <v>0.011790694721173679</v>
+      </c>
+      <c r="N4">
+        <v>0.82539150333103928</v>
+      </c>
+      <c r="O4">
+        <v>0.9016645124091871</v>
+      </c>
+      <c r="P4">
+        <v>0.99422614645977214</v>
+      </c>
+      <c r="Q4">
+        <v>0.046621291811852067</v>
+      </c>
+      <c r="R4">
+        <v>0.82514292025611702</v>
+      </c>
+      <c r="S4">
+        <v>0.70585494401049409</v>
+      </c>
+      <c r="T4">
+        <v>0.97673358656169329</v>
+      </c>
+      <c r="U4">
+        <v>0.049095716660855965</v>
+      </c>
+      <c r="V4">
+        <v>0.82703925258936029</v>
+      </c>
+      <c r="W4">
+        <v>0.72973907814720684</v>
+      </c>
+      <c r="X4">
+        <v>0.9756918465762574</v>
+      </c>
+      <c r="Y4">
+        <v>0.016795855347756457</v>
+      </c>
+      <c r="Z4">
+        <v>0.73607266297568519</v>
+      </c>
+      <c r="AA4">
+        <v>0.89711496759768428</v>
+      </c>
+      <c r="AB4">
+        <v>0.99177850886940799</v>
+      </c>
+      <c r="AC4">
+        <v>0.068661862068689683</v>
+      </c>
+      <c r="AD4">
+        <v>0.74224638587168479</v>
+      </c>
+      <c r="AE4">
+        <v>0.68814589622103972</v>
+      </c>
+      <c r="AF4">
+        <v>0.96581899692928852</v>
+      </c>
+      <c r="AG4">
+        <v>0.074241823172163129</v>
+      </c>
+      <c r="AH4">
+        <v>0.74137594852598587</v>
+      </c>
+      <c r="AI4">
+        <v>0.71200239523597686</v>
+      </c>
+      <c r="AJ4">
+        <v>0.96393589875972174</v>
+      </c>
+      <c r="AK4">
+        <v>0.016795855347756457</v>
+      </c>
+      <c r="AL4">
+        <v>0.73607266297568519</v>
+      </c>
+      <c r="AM4">
+        <v>0.89711496759768428</v>
+      </c>
+      <c r="AN4">
+        <v>0.99177850886940799</v>
+      </c>
+      <c r="AO4">
+        <v>0.068661862068689683</v>
+      </c>
+      <c r="AP4">
+        <v>0.74224638587168479</v>
+      </c>
+      <c r="AQ4">
+        <v>0.68814589622103972</v>
+      </c>
+      <c r="AR4">
+        <v>0.96581899692928852</v>
+      </c>
+      <c r="AS4">
+        <v>0.074241823172163129</v>
+      </c>
+      <c r="AT4">
+        <v>0.74137594852598587</v>
+      </c>
+      <c r="AU4">
+        <v>0.71200239523597686</v>
+      </c>
+      <c r="AV4">
+        <v>0.96393589875972174</v>
+      </c>
+      <c r="AW4">
+        <v>0.011403603108311681</v>
+      </c>
+      <c r="AX4">
+        <v>0.8132824059304441</v>
+      </c>
+      <c r="AY4">
+        <v>0.9020399026663376</v>
+      </c>
+      <c r="AZ4">
+        <v>0.9943989801677251</v>
+      </c>
+      <c r="BA4">
+        <v>0.050876577060884109</v>
+      </c>
+      <c r="BB4">
+        <v>0.8086222326107414</v>
+      </c>
+      <c r="BC4">
+        <v>0.70221325551012093</v>
+      </c>
+      <c r="BD4">
+        <v>0.97460284092713045</v>
+      </c>
+      <c r="BE4">
+        <v>0.055745032826119437</v>
+      </c>
+      <c r="BF4">
+        <v>0.80260314540943578</v>
+      </c>
+      <c r="BG4">
+        <v>0.72448889954769879</v>
+      </c>
+      <c r="BH4">
+        <v>0.97240764987225381</v>
+      </c>
+      <c r="BI4">
+        <v>0.011403603108311681</v>
+      </c>
+      <c r="BJ4">
+        <v>0.8132824059304441</v>
+      </c>
+      <c r="BK4">
+        <v>0.9020399026663376</v>
+      </c>
+      <c r="BL4">
+        <v>0.9943989801677251</v>
+      </c>
+      <c r="BM4">
+        <v>0.050876577060884109</v>
+      </c>
+      <c r="BN4">
+        <v>0.8086222326107414</v>
+      </c>
+      <c r="BO4">
+        <v>0.70221325551012093</v>
+      </c>
+      <c r="BP4">
+        <v>0.97460284092713045</v>
+      </c>
+      <c r="BQ4">
+        <v>0.055745032826119437</v>
+      </c>
+      <c r="BR4">
+        <v>0.80260314540943578</v>
+      </c>
+      <c r="BS4">
+        <v>0.72448889954769879</v>
+      </c>
+      <c r="BT4">
+        <v>0.97240764987225381</v>
+      </c>
+      <c r="BU4">
+        <v>0.016623408557846869</v>
+      </c>
+      <c r="BV4">
+        <v>0.73742226799697963</v>
+      </c>
+      <c r="BW4">
+        <v>0.89716842647704931</v>
+      </c>
+      <c r="BX4">
+        <v>0.99180775387362308</v>
+      </c>
+      <c r="BY4">
+        <v>0.06719782040081354</v>
+      </c>
+      <c r="BZ4">
+        <v>0.74633577241945925</v>
+      </c>
+      <c r="CA4">
+        <v>0.6891851093586937</v>
+      </c>
+      <c r="CB4">
+        <v>0.96654762496410263</v>
+      </c>
+      <c r="CC4">
+        <v>0.072301712045088021</v>
+      </c>
+      <c r="CD4">
+        <v>0.73982752479579983</v>
+      </c>
+      <c r="CE4">
+        <v>0.71285734530166101</v>
+      </c>
+      <c r="CF4">
+        <v>0.96476433879794388</v>
+      </c>
+      <c r="CG4">
+        <v>0.016623408557846869</v>
+      </c>
+      <c r="CH4">
+        <v>0.73742226799697963</v>
+      </c>
+      <c r="CI4">
+        <v>0.89716842647704931</v>
+      </c>
+      <c r="CJ4">
+        <v>0.99180775387362308</v>
+      </c>
+      <c r="CK4">
+        <v>0.06719782040081354</v>
+      </c>
+      <c r="CL4">
+        <v>0.74633577241945925</v>
+      </c>
+      <c r="CM4">
+        <v>0.6891851093586937</v>
+      </c>
+      <c r="CN4">
+        <v>0.96654762496410263</v>
+      </c>
+      <c r="CO4">
+        <v>0.072301712045088021</v>
+      </c>
+      <c r="CP4">
+        <v>0.73982752479579983</v>
+      </c>
+      <c r="CQ4">
+        <v>0.71285734530166101</v>
+      </c>
+      <c r="CR4">
+        <v>0.96476433879794388</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>